--- a/ScrapedInvoiceOutput.xlsx
+++ b/ScrapedInvoiceOutput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonidas Petrou\Documents\7Robots\Robot5_PDFDataScraping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aykut\Documents\UiPath\Bot5_PDFDataScrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D32E3A-0F29-481B-A1EE-4645F847D0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34805CF-7168-4230-9A9D-527569433AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21405" yWindow="-630" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Error Message</t>
   </si>
 </sst>
 </file>
@@ -82,11 +79,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,219 +385,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="58.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B145" s="2"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B146" s="2"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B147" s="2"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B148" s="2"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B149" s="2"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B150" s="2"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B151" s="2"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B152" s="2"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B153" s="2"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B154" s="2"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B155" s="2"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B156" s="2"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B157" s="2"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B158" s="2"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B159" s="2"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B160" s="2"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B161" s="2"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B162" s="2"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B163" s="2"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B164" s="2"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B165" s="2"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B166" s="2"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B168" s="2"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B169" s="2"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B170" s="2"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B171" s="2"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B172" s="2"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B173" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="1"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ScrapedInvoiceOutput.xlsx
+++ b/ScrapedInvoiceOutput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aykut\Documents\UiPath\Bot5_PDFDataScrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34805CF-7168-4230-9A9D-527569433AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4E0EF0-7351-40F4-A811-30931CC801A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21405" yWindow="-630" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ScrapedInvoiceOutput.xlsx
+++ b/ScrapedInvoiceOutput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aykut\Documents\UiPath\Bot5_PDFDataScrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DC9CEA-75F1-496F-B43A-13C81A144078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DF983C-5655-4A8C-BB45-EAFB06E00F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="2115" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-4305" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -82,10 +82,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,7 +400,7 @@
   <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,6 +411,7 @@
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="69.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -431,7 +441,13 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
